--- a/ABCD.xlsx
+++ b/ABCD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2724A57A-2F11-4B8E-9B0F-6F22E3CEAEDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F899557-9ADC-4D90-8CC9-4DB878B6B29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1502,7 +1502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I373"/>
     </sheetView>
   </sheetViews>
